--- a/artfynd/A 73321-2021 artfynd.xlsx
+++ b/artfynd/A 73321-2021 artfynd.xlsx
@@ -1111,7 +1111,7 @@
         <v>129896162</v>
       </c>
       <c r="B6" t="n">
-        <v>98920</v>
+        <v>99014</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>

--- a/artfynd/A 73321-2021 artfynd.xlsx
+++ b/artfynd/A 73321-2021 artfynd.xlsx
@@ -1182,7 +1182,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>T-Deg-7038</t>
+          <t>T-Deg-0047</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">

--- a/artfynd/A 73321-2021 artfynd.xlsx
+++ b/artfynd/A 73321-2021 artfynd.xlsx
@@ -1111,7 +1111,7 @@
         <v>129896162</v>
       </c>
       <c r="B6" t="n">
-        <v>99014</v>
+        <v>99015</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>

--- a/artfynd/A 73321-2021 artfynd.xlsx
+++ b/artfynd/A 73321-2021 artfynd.xlsx
@@ -1111,7 +1111,7 @@
         <v>129896162</v>
       </c>
       <c r="B6" t="n">
-        <v>99015</v>
+        <v>99018</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>

--- a/artfynd/A 73321-2021 artfynd.xlsx
+++ b/artfynd/A 73321-2021 artfynd.xlsx
@@ -1111,7 +1111,7 @@
         <v>129896162</v>
       </c>
       <c r="B6" t="n">
-        <v>99018</v>
+        <v>99019</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
